--- a/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DDE075-E12F-40E9-A6CC-508403ED6F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6005EDAC-CD1B-4F2E-8D0E-29E7C5E26595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A74E82A2-A039-4E4E-A19A-B9A211EB5F3F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7493C246-25D4-4683-ADAF-C1A496A0B59B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -86,16 +86,16 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -107,25 +107,25 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>5,92%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,661 +134,658 @@
     <t>35,49%</t>
   </si>
   <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>38,04%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -797,34 +794,34 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>34,01%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE5C93-9264-45BD-9FC0-BA1EA28630A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB87F4A9-92BE-4171-8FBD-30D41B4E8220}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1623,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -1635,13 +1632,13 @@
         <v>12690</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -1650,13 +1647,13 @@
         <v>20217</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1668,13 @@
         <v>23586</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -1686,13 +1683,13 @@
         <v>30941</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -1701,13 +1698,13 @@
         <v>54526</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1719,13 @@
         <v>141451</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -1737,13 +1734,13 @@
         <v>135815</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -1752,13 +1749,13 @@
         <v>277266</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1770,13 @@
         <v>255833</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -1788,13 +1785,13 @@
         <v>319131</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>461</v>
@@ -1803,13 +1800,13 @@
         <v>574963</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1862,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1874,13 @@
         <v>16607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -1892,13 +1889,13 @@
         <v>12948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -1907,13 +1904,13 @@
         <v>29555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>47365</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -1943,13 +1940,13 @@
         <v>31398</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -1958,13 +1955,13 @@
         <v>78763</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2263,13 @@
         <v>462542</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2284,13 @@
         <v>387908</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>640</v>
@@ -2302,13 +2299,13 @@
         <v>417060</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1025</v>
@@ -2317,13 +2314,13 @@
         <v>804968</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2388,13 @@
         <v>37297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -2406,10 +2403,10 @@
         <v>28630</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>163</v>
@@ -2421,13 +2418,13 @@
         <v>65927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>65710</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -2457,13 +2454,13 @@
         <v>62526</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
@@ -2472,13 +2469,13 @@
         <v>128236</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2490,13 @@
         <v>196355</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>381</v>
@@ -2508,13 +2505,13 @@
         <v>230313</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
@@ -2523,13 +2520,13 @@
         <v>426668</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2541,13 @@
         <v>300795</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>474</v>
@@ -2559,13 +2556,13 @@
         <v>274296</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>809</v>
@@ -2574,13 +2571,13 @@
         <v>575090</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2645,13 @@
         <v>39068</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -2663,13 +2660,13 @@
         <v>74292</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>197</v>
@@ -2678,13 +2675,13 @@
         <v>113360</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2696,13 @@
         <v>70498</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>274</v>
@@ -2714,13 +2711,13 @@
         <v>148480</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>378</v>
@@ -2729,13 +2726,13 @@
         <v>218978</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,10 +2747,10 @@
         <v>251352</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>213</v>
@@ -2905,7 +2902,7 @@
         <v>189715</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>229</v>
@@ -2923,10 +2920,10 @@
         <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>420</v>
@@ -2935,13 +2932,13 @@
         <v>345952</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2953,13 @@
         <v>262137</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>530</v>
@@ -2971,13 +2968,13 @@
         <v>341382</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>823</v>
@@ -2986,13 +2983,13 @@
         <v>603519</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>1085544</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1862</v>
@@ -3022,28 +3019,28 @@
         <v>1261589</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>2957</v>
       </c>
       <c r="N36" s="7">
-        <v>2347134</v>
+        <v>2347133</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,43 +3055,43 @@
         <v>1845698</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>2710</v>
       </c>
       <c r="I37" s="7">
-        <v>2042280</v>
+        <v>2042279</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>4529</v>
       </c>
       <c r="N37" s="7">
-        <v>3887979</v>
+        <v>3887978</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3118,7 @@
         <v>5355</v>
       </c>
       <c r="I38" s="7">
-        <v>3801489</v>
+        <v>3801488</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3136,7 +3133,7 @@
         <v>8729</v>
       </c>
       <c r="N38" s="7">
-        <v>7184584</v>
+        <v>7184583</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3150,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6005EDAC-CD1B-4F2E-8D0E-29E7C5E26595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A38759-2179-47CA-A0E7-6526911A4254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7493C246-25D4-4683-ADAF-C1A496A0B59B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93D155AC-6778-4406-BC86-5BEF473DC841}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB87F4A9-92BE-4171-8FBD-30D41B4E8220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32180F3C-4373-46F4-BAAF-598FE698A3CE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A38759-2179-47CA-A0E7-6526911A4254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBAA140-CCDD-491B-B2A4-C840DB370CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93D155AC-6778-4406-BC86-5BEF473DC841}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3C6E5E-BF44-4E35-9F9B-A879A21EEFE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -86,16 +86,16 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -107,685 +107,688 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>5,92%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
+    <t>38,26%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -794,34 +797,34 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>34,01%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32180F3C-4373-46F4-BAAF-598FE698A3CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E754C494-2DC9-418A-8C25-0D1ABE1BEBA7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1623,7 +1626,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -1632,13 +1635,13 @@
         <v>12690</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -1647,13 +1650,13 @@
         <v>20217</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1671,13 @@
         <v>23586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -1683,13 +1686,13 @@
         <v>30941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -1698,13 +1701,13 @@
         <v>54526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1722,13 @@
         <v>141451</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -1734,13 +1737,13 @@
         <v>135815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -1749,13 +1752,13 @@
         <v>277266</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1773,13 @@
         <v>255833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -1785,13 +1788,13 @@
         <v>319131</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>461</v>
@@ -1800,13 +1803,13 @@
         <v>574963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1865,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1874,13 +1877,13 @@
         <v>16607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -1889,13 +1892,13 @@
         <v>12948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -1904,13 +1907,13 @@
         <v>29555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1928,13 @@
         <v>47365</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -1940,13 +1943,13 @@
         <v>31398</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -1955,13 +1958,13 @@
         <v>78763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2266,13 @@
         <v>462542</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>387908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>640</v>
@@ -2299,13 +2302,13 @@
         <v>417060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1025</v>
@@ -2314,13 +2317,13 @@
         <v>804968</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2391,13 @@
         <v>37297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -2403,10 +2406,10 @@
         <v>28630</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>163</v>
@@ -2418,13 +2421,13 @@
         <v>65927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2442,13 @@
         <v>65710</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -2454,13 +2457,13 @@
         <v>62526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
@@ -2469,13 +2472,13 @@
         <v>128236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2493,13 @@
         <v>196355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>381</v>
@@ -2505,13 +2508,13 @@
         <v>230313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
@@ -2520,13 +2523,13 @@
         <v>426668</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2544,13 @@
         <v>300795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>474</v>
@@ -2556,13 +2559,13 @@
         <v>274296</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>809</v>
@@ -2571,13 +2574,13 @@
         <v>575090</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2648,13 @@
         <v>39068</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -2660,13 +2663,13 @@
         <v>74292</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>197</v>
@@ -2675,13 +2678,13 @@
         <v>113360</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2699,13 @@
         <v>70498</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>274</v>
@@ -2711,13 +2714,13 @@
         <v>148480</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>378</v>
@@ -2726,13 +2729,13 @@
         <v>218978</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,10 +2750,10 @@
         <v>251352</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>213</v>
@@ -2902,7 +2905,7 @@
         <v>189715</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>229</v>
@@ -2920,10 +2923,10 @@
         <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>420</v>
@@ -2932,13 +2935,13 @@
         <v>345952</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2956,13 @@
         <v>262137</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>530</v>
@@ -2968,13 +2971,13 @@
         <v>341382</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>823</v>
@@ -2983,13 +2986,13 @@
         <v>603519</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3007,13 @@
         <v>1085544</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1862</v>
@@ -3019,28 +3022,28 @@
         <v>1261589</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>2957</v>
       </c>
       <c r="N36" s="7">
-        <v>2347133</v>
+        <v>2347134</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,43 +3058,43 @@
         <v>1845698</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>2710</v>
       </c>
       <c r="I37" s="7">
-        <v>2042279</v>
+        <v>2042280</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>4529</v>
       </c>
       <c r="N37" s="7">
-        <v>3887978</v>
+        <v>3887979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3121,7 @@
         <v>5355</v>
       </c>
       <c r="I38" s="7">
-        <v>3801488</v>
+        <v>3801489</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3133,7 +3136,7 @@
         <v>8729</v>
       </c>
       <c r="N38" s="7">
-        <v>7184583</v>
+        <v>7184584</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3147,7 +3150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBAA140-CCDD-491B-B2A4-C840DB370CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14777D35-A0E7-4422-8BAE-A80F49504F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3C6E5E-BF44-4E35-9F9B-A879A21EEFE5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A0C1D46-D8EF-4EC5-9CA1-486DE674D655}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="298">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -65,766 +65,868 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,04%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,8 +1341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E754C494-2DC9-418A-8C25-0D1ABE1BEBA7}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF211394-66F7-4D1D-8893-E425E01C76A9}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1360,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3502</v>
+        <v>3170</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1375,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4600</v>
+        <v>4295</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1390,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>8102</v>
+        <v>7465</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1411,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>6713</v>
+        <v>6206</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1426,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>22498</v>
+        <v>19277</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1441,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>29211</v>
+        <v>25483</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,109 +1552,109 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>134048</v>
+        <v>139657</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>99693</v>
+        <v>80461</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>233741</v>
+        <v>220118</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>109</v>
       </c>
       <c r="D7" s="7">
-        <v>233416</v>
+        <v>250953</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>139</v>
       </c>
       <c r="I7" s="7">
-        <v>228166</v>
+        <v>209167</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>248</v>
       </c>
       <c r="N7" s="7">
-        <v>461582</v>
+        <v>460120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,51 +1666,51 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1617,46 +1719,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>7527</v>
+        <v>6543</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>12690</v>
+        <v>10739</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>20217</v>
+        <v>17282</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,148 +1770,148 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>23586</v>
+        <v>21687</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>30941</v>
+        <v>27040</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>54526</v>
+        <v>48728</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>103</v>
       </c>
       <c r="D11" s="7">
-        <v>141451</v>
+        <v>136916</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>135815</v>
+        <v>120230</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
       </c>
       <c r="N11" s="7">
-        <v>277266</v>
+        <v>257145</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>255833</v>
+        <v>258401</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
       </c>
       <c r="I12" s="7">
-        <v>319131</v>
+        <v>353495</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>574963</v>
+        <v>611896</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,51 +1923,51 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1874,46 +1976,46 @@
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>16607</v>
+        <v>15378</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>12948</v>
+        <v>11457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>29555</v>
+        <v>26835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,148 +2027,148 @@
         <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>47365</v>
+        <v>43444</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
       </c>
       <c r="I15" s="7">
-        <v>31398</v>
+        <v>27456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>78763</v>
+        <v>70900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>158</v>
       </c>
       <c r="D16" s="7">
-        <v>160236</v>
+        <v>150778</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>267</v>
       </c>
       <c r="I16" s="7">
-        <v>184606</v>
+        <v>168403</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>425</v>
       </c>
       <c r="N16" s="7">
-        <v>344842</v>
+        <v>319181</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>320</v>
       </c>
       <c r="D17" s="7">
-        <v>331871</v>
+        <v>325713</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>515</v>
       </c>
       <c r="I17" s="7">
-        <v>352775</v>
+        <v>333479</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>835</v>
       </c>
       <c r="N17" s="7">
-        <v>684647</v>
+        <v>659192</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,51 +2180,51 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>556079</v>
+        <v>535313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>844</v>
       </c>
       <c r="I18" s="7">
-        <v>581727</v>
+        <v>540795</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1389</v>
       </c>
       <c r="N18" s="7">
-        <v>1137806</v>
+        <v>1076108</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,46 +2233,46 @@
         <v>35</v>
       </c>
       <c r="D19" s="7">
-        <v>85715</v>
+        <v>275539</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>23077</v>
+        <v>20587</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>108792</v>
+        <v>296126</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,148 +2284,148 @@
         <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>48266</v>
+        <v>44474</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
       </c>
       <c r="I20" s="7">
-        <v>45540</v>
+        <v>40464</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
       </c>
       <c r="N20" s="7">
-        <v>93805</v>
+        <v>84938</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>200</v>
       </c>
       <c r="D21" s="7">
-        <v>202101</v>
+        <v>195620</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>260441</v>
+        <v>236368</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>591</v>
       </c>
       <c r="N21" s="7">
-        <v>462542</v>
+        <v>431988</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>385</v>
       </c>
       <c r="D22" s="7">
-        <v>387908</v>
+        <v>372152</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>640</v>
       </c>
       <c r="I22" s="7">
-        <v>417060</v>
+        <v>414396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>1025</v>
       </c>
       <c r="N22" s="7">
-        <v>804968</v>
+        <v>786549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,51 +2437,51 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1139</v>
       </c>
       <c r="I23" s="7">
-        <v>746117</v>
+        <v>711815</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1804</v>
       </c>
       <c r="N23" s="7">
-        <v>1470107</v>
+        <v>1599602</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,46 +2490,46 @@
         <v>42</v>
       </c>
       <c r="D24" s="7">
-        <v>37297</v>
+        <v>33829</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
       </c>
       <c r="I24" s="7">
-        <v>28630</v>
+        <v>25361</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
       </c>
       <c r="N24" s="7">
-        <v>65927</v>
+        <v>59190</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,148 +2541,148 @@
         <v>74</v>
       </c>
       <c r="D25" s="7">
-        <v>65710</v>
+        <v>59574</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
       </c>
       <c r="I25" s="7">
-        <v>62526</v>
+        <v>55803</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
       </c>
       <c r="N25" s="7">
-        <v>128236</v>
+        <v>115376</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>212</v>
       </c>
       <c r="D26" s="7">
-        <v>196355</v>
+        <v>180654</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>381</v>
       </c>
       <c r="I26" s="7">
-        <v>230313</v>
+        <v>209975</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
       </c>
       <c r="N26" s="7">
-        <v>426668</v>
+        <v>390629</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>335</v>
       </c>
       <c r="D27" s="7">
-        <v>300795</v>
+        <v>287178</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>474</v>
       </c>
       <c r="I27" s="7">
-        <v>274296</v>
+        <v>255555</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>809</v>
       </c>
       <c r="N27" s="7">
-        <v>575090</v>
+        <v>542733</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,99 +2694,99 @@
         <v>663</v>
       </c>
       <c r="D28" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
       </c>
       <c r="I28" s="7">
-        <v>595765</v>
+        <v>546694</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1663</v>
       </c>
       <c r="N28" s="7">
-        <v>1195922</v>
+        <v>1107928</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>39068</v>
+        <v>14311</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>43</v>
+      </c>
+      <c r="I29" s="7">
+        <v>21568</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="7">
-        <v>136</v>
-      </c>
-      <c r="I29" s="7">
-        <v>74292</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>66</v>
+      </c>
+      <c r="N29" s="7">
+        <v>35879</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M29" s="7">
-        <v>197</v>
-      </c>
-      <c r="N29" s="7">
-        <v>113360</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,151 +2795,151 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D30" s="7">
-        <v>70498</v>
+        <v>31956</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>115</v>
+      </c>
+      <c r="I30" s="7">
+        <v>57627</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="7">
-        <v>274</v>
-      </c>
-      <c r="I30" s="7">
-        <v>148480</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>165</v>
+      </c>
+      <c r="N30" s="7">
+        <v>89584</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="M30" s="7">
-        <v>378</v>
-      </c>
-      <c r="N30" s="7">
-        <v>218978</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="D31" s="7">
-        <v>251352</v>
+        <v>129668</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="7">
+        <v>307</v>
+      </c>
+      <c r="I31" s="7">
+        <v>154036</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H31" s="7">
-        <v>641</v>
-      </c>
-      <c r="I31" s="7">
-        <v>350722</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>509</v>
+      </c>
+      <c r="N31" s="7">
+        <v>283703</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M31" s="7">
-        <v>1006</v>
-      </c>
-      <c r="N31" s="7">
-        <v>602074</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
-        <v>497</v>
+        <v>295</v>
       </c>
       <c r="D32" s="7">
-        <v>335876</v>
+        <v>192230</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>362</v>
+      </c>
+      <c r="I32" s="7">
+        <v>375137</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="7">
-        <v>654</v>
-      </c>
-      <c r="I32" s="7">
-        <v>450852</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>657</v>
+      </c>
+      <c r="N32" s="7">
+        <v>567367</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1151</v>
-      </c>
-      <c r="N32" s="7">
-        <v>786728</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,102 +2948,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>696794</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1024345</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1721139</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="D34" s="7">
-        <v>189715</v>
+        <v>21404</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>93</v>
+      </c>
+      <c r="I34" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H34" s="7">
-        <v>253</v>
-      </c>
-      <c r="I34" s="7">
-        <v>156237</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>131</v>
+      </c>
+      <c r="N34" s="7">
+        <v>65583</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M34" s="7">
-        <v>420</v>
-      </c>
-      <c r="N34" s="7">
-        <v>345952</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,46 +3052,46 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="D35" s="7">
-        <v>262137</v>
+        <v>31818</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>159</v>
+      </c>
+      <c r="I35" s="7">
+        <v>74637</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H35" s="7">
-        <v>530</v>
-      </c>
-      <c r="I35" s="7">
-        <v>341382</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>213</v>
+      </c>
+      <c r="N35" s="7">
+        <v>106455</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="M35" s="7">
-        <v>823</v>
-      </c>
-      <c r="N35" s="7">
-        <v>603519</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>244</v>
@@ -2998,13 +3100,13 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>1095</v>
+        <v>163</v>
       </c>
       <c r="D36" s="7">
-        <v>1085544</v>
+        <v>101351</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>245</v>
@@ -3016,10 +3118,10 @@
         <v>247</v>
       </c>
       <c r="H36" s="7">
-        <v>1862</v>
+        <v>334</v>
       </c>
       <c r="I36" s="7">
-        <v>1261589</v>
+        <v>162242</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>248</v>
@@ -3031,10 +3133,10 @@
         <v>250</v>
       </c>
       <c r="M36" s="7">
-        <v>2957</v>
+        <v>497</v>
       </c>
       <c r="N36" s="7">
-        <v>2347134</v>
+        <v>263592</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>251</v>
@@ -3049,13 +3151,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>1819</v>
+        <v>202</v>
       </c>
       <c r="D37" s="7">
-        <v>1845698</v>
+        <v>127319</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>254</v>
@@ -3067,10 +3169,10 @@
         <v>256</v>
       </c>
       <c r="H37" s="7">
-        <v>2710</v>
+        <v>292</v>
       </c>
       <c r="I37" s="7">
-        <v>2042280</v>
+        <v>142899</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>257</v>
@@ -3082,10 +3184,10 @@
         <v>259</v>
       </c>
       <c r="M37" s="7">
-        <v>4529</v>
+        <v>494</v>
       </c>
       <c r="N37" s="7">
-        <v>3887979</v>
+        <v>270218</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>260</v>
@@ -3103,63 +3205,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>457</v>
+      </c>
+      <c r="D38" s="7">
+        <v>281892</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>878</v>
+      </c>
+      <c r="I38" s="7">
+        <v>423956</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N38" s="7">
+        <v>705847</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>167</v>
+      </c>
+      <c r="D39" s="7">
+        <v>370173</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" s="7">
+        <v>253</v>
+      </c>
+      <c r="I39" s="7">
+        <v>138186</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M39" s="7">
+        <v>420</v>
+      </c>
+      <c r="N39" s="7">
+        <v>508360</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>293</v>
+      </c>
+      <c r="D40" s="7">
+        <v>239160</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" s="7">
+        <v>530</v>
+      </c>
+      <c r="I40" s="7">
+        <v>302304</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="7">
+        <v>823</v>
+      </c>
+      <c r="N40" s="7">
+        <v>541464</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1095</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1034644</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1862</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1131713</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2957</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2166357</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1819</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1813946</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2710</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2084130</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4529</v>
+      </c>
+      <c r="N42" s="7">
+        <v>3898076</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3374</v>
       </c>
-      <c r="D38" s="7">
-        <v>3383094</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3457924</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>5355</v>
       </c>
-      <c r="I38" s="7">
-        <v>3801489</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3656333</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>8729</v>
       </c>
-      <c r="N38" s="7">
-        <v>7184584</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>263</v>
+      <c r="N43" s="7">
+        <v>7114257</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
